--- a/pred_ohlcv/54_21/2020-01-19 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1474.712854228797</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-117171.0421457712</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-117171.0421457712</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-68611.38714577121</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-101651.9771457712</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-189760.2171457712</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-119674.1171457712</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-260847.5471457712</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-181750.3771457712</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-329939.5240457712</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>370674.9847542288</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>609364.1491542287</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>631391.2091542288</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>568814.3341542288</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>706984.0741542288</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>693607.6411542287</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>751678.9811542287</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>783718.3411542287</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>420764.0596542287</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>489240.1816542287</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>411144.2416542287</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>363085.2016542287</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>380086.9538542287</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>389598.6388542287</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>355556.8188542287</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>423640.4588542287</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>458683.5088542287</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1149706.797954229</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1206776.907954229</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1319248.420254229</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1319248.420254229</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1344632.246954229</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1297574.436954229</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1335120.561954229</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1287562.136954229</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1346134.091954229</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1410212.811954229</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1371665.456954229</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1448760.166954229</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1501228.623954229</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1427638.218954229</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1365061.343954229</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1299981.393954229</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1373071.183954229</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1313998.613954229</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1295081.946854229</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1249025.366854229</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1456167.568054229</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1488206.928054229</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1488206.928054229</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1538016.265754229</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>6116710.61935423</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>5975537.189354231</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>6054634.359354231</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>6455246.064354231</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>6514318.634354231</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>6560375.214354231</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>6502303.874354231</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>6470264.514354231</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>6624441.919354231</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>6573379.189354231</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>6533329.98935423</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>6592402.55935423</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>6549349.66935423</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>6573379.18935423</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>6474932.63435423</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>6373819.97525423</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>6409275.53225423</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>7368529.815354231</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>7546740.858554231</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>7421168.221054231</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>7371106.721054231</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>7431516.395454231</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>7361430.295454231</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>7384683.642354231</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>7305085.857354231</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>7164413.042354231</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>7203461.012354231</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>7132373.68235423</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>7148709.751354231</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>7189259.566354231</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>7117671.621354231</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>7159222.666354232</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>6412363.392854232</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>6408922.135554233</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>6408922.135554233</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>6452976.255554233</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>6318310.820554233</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>6243719.185554233</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>6385693.845554233</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>6313104.670554233</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>6379185.850554232</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>6333629.885554233</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>6389698.765554233</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>6339136.650554232</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>6339136.650554232</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>6392702.455554232</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>6350712.526054232</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>6318172.551054233</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>6381950.656054233</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>6381950.656054233</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>6447531.221054234</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>6499595.181054234</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>6499595.181054234</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>6457543.521054233</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>6380949.426054234</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>6450534.911054234</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>6401302.429054234</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>6434343.019054234</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>6434343.019054234</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>6364256.919054234</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>6284459.134054234</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>6255402.878854234</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>6326990.823854234</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>6284438.548854234</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>6319982.213854234</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>6282572.255854234</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>6326125.760854234</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>6396712.475854234</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>6339642.365854234</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>6375686.645854234</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>6300093.780854234</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>6231008.910854233</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>6308604.235854234</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>6264049.500854233</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>6264049.500854233</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>6150064.197954234</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>6199124.467954233</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>6199124.467954233</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>6161578.342954233</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>6161578.342954233</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>6220150.297954233</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>6156071.577954234</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>6271713.642954234</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>6154221.304954235</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>7401912.356754239</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>7470796.980754239</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>7435753.930754239</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>7436402.727754239</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>7434902.727754239</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>7434902.727754239</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>7434902.727754239</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>7434702.727754239</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>7370123.392754239</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>7425691.657754239</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>7528033.863754239</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>7521184.393854239</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>7574249.583854239</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>7646838.758854239</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>7526691.15885424</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>7526210.56885424</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>7571766.53385424</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>7627835.41385424</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>7576587.298854239</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>7576587.298854239</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>7740921.66815424</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>7708381.69315424</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>7708882.30815424</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>7774462.873154241</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>7722398.913154241</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>7507481.749654241</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>7859492.520354242</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>7939090.305354242</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>7939090.305354242</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>8018187.475354242</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>8018187.475354242</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>7788439.882554242</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>8919840.466554243</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>9006983.607054245</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>8996971.307054244</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>9055543.262054244</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>8991464.542054243</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>9107106.607054243</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>9055543.262054242</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>8981952.857054243</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>9036519.892054243</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>9095592.462054243</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>9049535.882054243</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>8990471.322054243</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>9022510.682054242</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>8991472.552054241</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>9046540.202054242</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>8978957.177054241</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>8994802.730354242</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>9158003.220354242</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>9079406.665354243</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>9245840.845354244</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>9245840.845354244</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>9245840.845354244</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>9245840.845354244</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>9145840.845354244</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>9146818.045354243</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>9096818.045354243</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>9096818.045354243</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>8905624.452554243</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>8849555.572554242</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>8821364.867554242</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>8821364.867554242</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>8788824.892554242</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>8789325.507554242</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>8424570.517354239</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>8365497.947354238</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>8365297.947354238</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>8278359.255254239</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>8278359.255254239</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>8277858.64025424</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>8237809.440254239</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>8273853.72025424</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>8294193.72025424</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>8362277.360254239</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>8481821.07355424</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>7919204.65865424</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>7991293.21865424</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>8039352.25865424</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>7960755.70365424</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>8040854.10365424</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>8000784.878654241</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>8069369.133654241</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>8171995.208654241</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>8130444.163654241</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>8077879.588654241</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>8139955.84865424</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>8105914.02865424</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>8174622.43665424</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>8139579.38665424</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>8095525.26665424</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>8034950.85165424</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>7960859.83165424</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>8035451.46665424</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>8035451.46665424</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>7974376.43665424</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>7898282.956654239</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>7898282.956654239</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>7823190.706654239</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>7890273.11665424</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>7825693.78165424</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>7881262.046654239</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>7821688.86165424</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>7947343.22665424</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>7947343.22665424</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>7947343.22665424</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>7901402.78965424</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>7957471.66965424</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>8008033.78465424</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>7929937.84465424</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>7983503.649654239</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>8016043.624654239</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>7952465.519654239</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>8018398.749654239</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>7952818.184654239</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>7899819.852654238</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>7899819.852654238</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>7942028.154354238</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>7865434.059354238</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>7795848.574354238</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>7844408.229354238</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>7844408.229354238</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>7794346.729354238</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>7832393.469354238</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>7841905.154354239</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>7841748.512654239</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>7903324.157654239</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>7943373.357654239</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>7872286.027654239</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>7928855.522654239</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>7887805.092654239</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>7847255.277654239</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>7918843.222654239</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>7777570.74765424</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1474.712854228797</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-117171.0421457712</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-117171.0421457712</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-68611.38714577121</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-101651.9771457712</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-189760.2171457712</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-119674.1171457712</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-260847.5471457712</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-181750.3771457712</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-329939.5240457712</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>370674.9847542288</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>370674.9847542288</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>609364.1491542287</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>631391.2091542288</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>568814.3341542288</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>706984.0741542288</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>693607.6411542287</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>751678.9811542287</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>783718.3411542287</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>420764.0596542287</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>489240.1816542287</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>411144.2416542287</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>363085.2016542287</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>380086.9538542287</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>389598.6388542287</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>355556.8188542287</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>423640.4588542287</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>458683.5088542287</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1149706.797954229</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1206776.907954229</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1319248.420254229</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1319248.420254229</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1344632.246954229</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1297574.436954229</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1335120.561954229</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1287562.136954229</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1346134.091954229</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1410212.811954229</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1371665.456954229</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1448760.166954229</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1501228.623954229</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1427638.218954229</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1365061.343954229</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1299981.393954229</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1373071.183954229</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1313998.613954229</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1295081.946854229</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1249025.366854229</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1456167.568054229</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1488206.928054229</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1488206.928054229</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1538016.265754229</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>6116710.61935423</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>6054634.359354231</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>6514318.634354231</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>6560375.214354231</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>7240328.321354229</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>7203326.86535423</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>7421168.221054231</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>7371106.721054231</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>7431516.395454231</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>7361430.295454231</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>7384683.642354231</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>7305085.857354231</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>7164413.042354231</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>7203461.012354231</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>7148709.751354231</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>7189259.566354231</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>7159222.666354232</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>6412363.392854232</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>6408922.135554233</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>6408922.135554233</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>6452976.255554233</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>6318310.820554233</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>6243719.185554233</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>6333629.885554233</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>6339136.650554232</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>6339136.650554232</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>6392702.455554232</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>6350712.526054232</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>6318172.551054233</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>6381950.656054233</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>6381950.656054233</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>6447531.221054234</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>6499595.181054234</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>6499595.181054234</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>6457543.521054233</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>6380949.426054234</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>6450534.911054234</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>6401302.429054234</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>6434343.019054234</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>6434343.019054234</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>6364256.919054234</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>6284459.134054234</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>6346034.779054234</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>6255402.878854234</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>6326990.823854234</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>6284438.548854234</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>6319982.213854234</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>6282572.255854234</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>6326125.760854234</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>6396712.475854234</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>6339642.365854234</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>6375686.645854234</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>6300093.780854234</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>6231008.910854233</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>6308604.235854234</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>6264049.500854233</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>6264049.500854233</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>6150064.197954234</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>6199124.467954233</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>6199124.467954233</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>6161578.342954233</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>6161578.342954233</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>6220150.297954233</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>6156071.577954234</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>6271713.642954234</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>6220150.297954234</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>6154221.304954235</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>6081131.514954234</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>8069369.133654241</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>7929937.84465424</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>7983503.649654239</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>7952465.519654239</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>8018398.749654239</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>7952818.184654239</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>7847255.277654239</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
